--- a/5_testing documentation ( test scenario-test case-dll )/praktikum/praktikum section 5.xlsx
+++ b/5_testing documentation ( test scenario-test case-dll )/praktikum/praktikum section 5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sttpln-my.sharepoint.com/personal/revaldi1911170_itpln_ac_id/Documents/Dokumen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alta folder\5_testing documentation ( test scenario-test case-dll )\praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1E8807B1-35FF-49EB-8ADE-5E525A93C1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC93A56-233D-46D9-BA57-DAC706430432}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34F1BE-B60C-4574-BD6D-7E0B8C68946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D6E9139-8763-4AA3-BCC2-AEBBC7B55389}"/>
+    <workbookView xWindow="7200" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{1D6E9139-8763-4AA3-BCC2-AEBBC7B55389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
